--- a/bioinformatics-analysis/resources/sample-meta-en.xlsx
+++ b/bioinformatics-analysis/resources/sample-meta-en.xlsx
@@ -1,31 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zwx/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2200" yWindow="4280" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -33,43 +17,73 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Sampling Date(YYYY-MM-DD)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Submission Date(YYYY-MM-DD)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sampling Site</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sample Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Tumor Content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Tumor Sample</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sample Identification Number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Patient Identification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="36">
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="180" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="181" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="183" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="185" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="186" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="187" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="188" formatCode="mmmmm"/>
+    <numFmt numFmtId="189" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="190" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="191" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="192" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="193" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="194" formatCode="yy/m/d"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="195" formatCode="#\ ??"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="196" formatCode="m/d"/>
+    <numFmt numFmtId="197" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="198" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="199" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -77,21 +91,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -99,21 +98,19 @@
       <sz val="21"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18.850000000000001"/>
+      <sz val="18.85"/>
       <color theme="1"/>
       <name val="Material Icons"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -121,17 +118,367 @@
       <sz val="24"/>
       <color theme="1"/>
       <name val="Material Icons"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -139,19 +486,264 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -168,17 +760,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -227,7 +863,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -260,26 +896,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -312,23 +931,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,29 +1072,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="24.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,65 +1102,105 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-    </row>
-    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+    <row r="8" ht="26.25" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" ht="22.5" spans="1:1">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="11" ht="20.25" spans="1:1">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" ht="29.25" spans="1:1">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" ht="20.25" spans="1:1">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" ht="29.25" spans="1:1">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" ht="20.25" spans="1:1">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" ht="20.25" spans="1:1">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" ht="29.25" spans="1:1">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" ht="20.25" spans="1:1">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="20" ht="20.25" spans="1:1">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" ht="20.25" spans="1:1">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" ht="20.25" spans="1:1">
+      <c r="A22" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"FFPE,Fresh Tissue,Blood,Cerebrospinal Fluid,Pleural Effusion,Other Body Fluids,Bone Marrow"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings isFilterShared="1" coreConquerUserId="" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
+  </woBookProps>
+</woProps>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>